--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE594E0-9C2B-4182-BFA7-EDE5C350656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BB875-6CDB-4EC8-A683-22EA2D53306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>creationDate</t>
   </si>
@@ -225,9 +225,6 @@
     <t>issueNumber</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
     <t>สมหมาย</t>
   </si>
   <si>
@@ -289,6 +286,15 @@
   </si>
   <si>
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+  </si>
+  <si>
+    <t>74-yhj-gb8</t>
+  </si>
+  <si>
+    <t>contractNo</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -329,11 +335,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +657,7 @@
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -662,16 +667,16 @@
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -864,95 +869,95 @@
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3">
-        <v>45185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="BO2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BB875-6CDB-4EC8-A683-22EA2D53306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A243D540-9A3B-45C3-A8A3-E4DF5F8AB622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A243D540-9A3B-45C3-A8A3-E4DF5F8AB622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BC51A-1F50-4D8A-9FE5-E7A6F30EF9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>creationDate</t>
   </si>
@@ -656,8 +656,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -956,9 +956,7 @@
       <c r="BE2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BO2" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="BO2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BC51A-1F50-4D8A-9FE5-E7A6F30EF9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4604C34E-497F-461C-AC19-EA0D2D682A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4604C34E-497F-461C-AC19-EA0D2D682A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD61BBB-3EB0-4FC1-A70E-9D43E178DB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,14 +294,14 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -660,12 +660,12 @@
       <selection activeCell="BO2" sqref="BO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="16383" max="16384" width="11.77734375" customWidth="1"/>
+    <col min="16383" max="16384" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -868,7 +868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67">
       <c r="A2" t="s">
         <v>67</v>
       </c>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD61BBB-3EB0-4FC1-A70E-9D43E178DB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B4054-D882-45DB-9D07-9E9650E93C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B4054-D882-45DB-9D07-9E9650E93C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35129D38-B2D1-406A-9B9C-8E9BD361D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -357,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC00DA-DF0C-42BC-A12D-AF2023315A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E3DD7-F84E-4739-B5F5-757940EEFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -357,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E3DD7-F84E-4739-B5F5-757940EEFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD8E0D-D3AA-4FAA-BCDC-08659EC67E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -294,14 +294,14 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -656,16 +656,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO2" sqref="BO2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="16383" max="16384" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -868,7 +868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case3/Auto_Branch_Case3_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD8E0D-D3AA-4FAA-BCDC-08659EC67E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C627CD2-AE92-4C7A-87B1-5E411A97EC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>contractNo</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
